--- a/data/trans_dic/P36BPD04_R1_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_R1_2023-Dificultad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9115669154165179</v>
+        <v>0.911566915416518</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.930864319609249</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9222845414665681</v>
+        <v>0.922284541466568</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8732450792191579</v>
+        <v>0.8795113735668709</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9059152763709525</v>
+        <v>0.9087590369090514</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9040980624400492</v>
+        <v>0.9035048470269592</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9390607300690113</v>
+        <v>0.9374321014304028</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9482146892917235</v>
+        <v>0.950730054026929</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9383739742953752</v>
+        <v>0.9391561054667998</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9389387320160908</v>
+        <v>0.9376358481968451</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.944351241004787</v>
+        <v>0.9436033593605879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9463891756736975</v>
+        <v>0.9458286767545303</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9700371140193376</v>
+        <v>0.969203022552433</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9668064913788257</v>
+        <v>0.9656158707297029</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9654633182398488</v>
+        <v>0.9649497388806766</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.9389414048766976</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9546224206292868</v>
+        <v>0.9546224206292869</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9467841708190224</v>
+        <v>0.9467841708190226</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9202787659187542</v>
+        <v>0.91880728975564</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9397639484292389</v>
+        <v>0.9408565371809194</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9358533303436202</v>
+        <v>0.9357677674045339</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9531214597661203</v>
+        <v>0.9547524848802816</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9648443830248745</v>
+        <v>0.9648899467355678</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9564672144635813</v>
+        <v>0.958014031621878</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.943593447753027</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9362669829257151</v>
+        <v>0.936266982925715</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.940063753686706</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9226516777107797</v>
+        <v>0.9220743574077758</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9182798239229428</v>
+        <v>0.9183895819701843</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9281322523044491</v>
+        <v>0.9265992674774142</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9593832481994821</v>
+        <v>0.9584042724550809</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9504630594305333</v>
+        <v>0.9509504412227869</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9515321868078847</v>
+        <v>0.9517570732975233</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.9412716108594172</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9465926064460715</v>
+        <v>0.9465926064460713</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9440105051612652</v>
+        <v>0.9440105051612654</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9312358040968539</v>
+        <v>0.9317989367556272</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9383841163688124</v>
+        <v>0.9390642135523973</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9380655158472736</v>
+        <v>0.9375031316495156</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9497164749993915</v>
+        <v>0.949786819231683</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9538753134275423</v>
+        <v>0.9531197528489044</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9492040598721325</v>
+        <v>0.9493584953624593</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>435521</v>
+        <v>438647</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>564396</v>
+        <v>566168</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1014173</v>
+        <v>1013507</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>468346</v>
+        <v>467534</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>590749</v>
+        <v>592316</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1052622</v>
+        <v>1053499</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>901510</v>
+        <v>900259</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1053241</v>
+        <v>1052406</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1964176</v>
+        <v>1963013</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>931369</v>
+        <v>930568</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1078285</v>
+        <v>1076957</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>2003763</v>
+        <v>2002697</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>963052</v>
+        <v>961513</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>984010</v>
+        <v>985154</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1959266</v>
+        <v>1959087</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>997422</v>
+        <v>999128</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1010271</v>
+        <v>1010319</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2002422</v>
+        <v>2005661</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>900443</v>
+        <v>899879</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>833136</v>
+        <v>833236</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1747866</v>
+        <v>1744979</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>936290</v>
+        <v>935335</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>862335</v>
+        <v>862777</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1791933</v>
+        <v>1792357</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3241896</v>
+        <v>3243857</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3465151</v>
+        <v>3467663</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6729647</v>
+        <v>6725613</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3306233</v>
+        <v>3306478</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3522355</v>
+        <v>3519565</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6809555</v>
+        <v>6810663</v>
       </c>
     </row>
     <row r="24">
